--- a/proiect-CC_IHT.xlsx
+++ b/proiect-CC_IHT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
@@ -51,7 +51,7 @@
     <definedName name="TitleRegion1..F6" localSheetId="3">'PACIENT 4'!$B$3</definedName>
     <definedName name="TitleRegion1..F6">'PACIENT 1'!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -124,13 +124,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode=";;;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -392,28 +392,53 @@
   <dxfs count="40">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -437,28 +462,28 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -482,28 +507,28 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -524,31 +549,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -648,8 +648,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ro-RO"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -667,6 +677,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -690,6 +701,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 1'!$C$12:$D$19</c:f>
@@ -697,54 +709,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -772,7 +784,7 @@
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>140</c:v>
@@ -783,7 +795,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3571-4D12-851E-B33D67C20758}"/>
             </c:ext>
@@ -812,6 +824,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 1'!$C$12:$D$19</c:f>
@@ -819,54 +832,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -897,7 +910,7 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>85</c:v>
@@ -905,17 +918,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3571-4D12-851E-B33D67C20758}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="149985536"/>
         <c:axId val="150143360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -975,13 +998,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3571-4D12-851E-B33D67C20758}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="150155648"/>
         <c:axId val="150145280"/>
       </c:lineChart>
@@ -990,39 +1023,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1054,7 +1059,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150143360"/>
@@ -1062,12 +1067,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="150143360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1111,6 +1118,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1118,9 +1126,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -1146,7 +1175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="149985536"/>
@@ -1158,6 +1187,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -1187,6 +1217,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1194,9 +1225,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1222,7 +1274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150155648"/>
@@ -1237,12 +1289,14 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="150145280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -1255,6 +1309,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1279,12 +1334,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1308,7 +1364,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1320,8 +1376,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ro-RO"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1339,6 +1405,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1362,6 +1429,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 2'!$C$12:$D$19</c:f>
@@ -1369,54 +1437,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1431,7 +1499,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6B5C-44D8-8F1B-2B805B725F20}"/>
             </c:ext>
@@ -1460,6 +1528,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 2'!$C$12:$D$19</c:f>
@@ -1467,54 +1536,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1529,17 +1598,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6B5C-44D8-8F1B-2B805B725F20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="150399232"/>
         <c:axId val="150421888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1575,13 +1654,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6B5C-44D8-8F1B-2B805B725F20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="150438272"/>
         <c:axId val="150423808"/>
       </c:lineChart>
@@ -1590,8 +1679,10 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1616,12 +1707,13 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1653,7 +1745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150421888"/>
@@ -1661,12 +1753,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="150421888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1709,6 +1803,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1716,9 +1811,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -1744,7 +1860,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150399232"/>
@@ -1756,6 +1872,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -1784,6 +1901,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1791,9 +1909,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1819,7 +1958,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150438272"/>
@@ -1834,12 +1973,14 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="150423808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -1851,6 +1992,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1875,12 +2017,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1904,7 +2047,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1916,8 +2059,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ro-RO"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1935,6 +2088,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1958,6 +2112,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 3'!$C$12:$D$19</c:f>
@@ -1965,54 +2120,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2027,7 +2182,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E703-4A3A-AD1C-3CB2FB211F88}"/>
             </c:ext>
@@ -2056,6 +2211,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 3'!$C$12:$D$19</c:f>
@@ -2063,54 +2219,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2125,17 +2281,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E703-4A3A-AD1C-3CB2FB211F88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="150694144"/>
         <c:axId val="150704512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2171,13 +2337,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E703-4A3A-AD1C-3CB2FB211F88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="150720896"/>
         <c:axId val="150706432"/>
       </c:lineChart>
@@ -2186,8 +2362,10 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2212,12 +2390,13 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2249,7 +2428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150704512"/>
@@ -2257,12 +2436,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="150704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2305,6 +2486,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2312,9 +2494,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -2340,7 +2543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150694144"/>
@@ -2352,6 +2555,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -2380,6 +2584,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2387,9 +2592,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2415,7 +2641,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150720896"/>
@@ -2430,12 +2656,14 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="150706432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -2447,6 +2675,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2471,12 +2700,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2500,7 +2730,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2512,8 +2742,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ro-RO"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2531,6 +2771,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2554,6 +2795,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 4'!$C$12:$D$19</c:f>
@@ -2561,54 +2803,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2623,7 +2865,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F68-4985-A08F-7D12784DED74}"/>
             </c:ext>
@@ -2652,6 +2894,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'PACIENT 4'!$C$12:$D$19</c:f>
@@ -2659,54 +2902,54 @@
                 <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>m.</c:v>
+                    <c:v>AM</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>m.</c:v>
+                    <c:v>PM</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>04.01.2020</c:v>
+                    <c:v>1/4/2020</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>05.01.2020</c:v>
+                    <c:v>1/5/2020</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>06.01.2020</c:v>
+                    <c:v>1/6/2020</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>07.01.2020</c:v>
+                    <c:v>1/7/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2721,17 +2964,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F68-4985-A08F-7D12784DED74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="150903040"/>
         <c:axId val="150921600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2767,13 +3020,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F68-4985-A08F-7D12784DED74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="150741376"/>
         <c:axId val="150923520"/>
       </c:lineChart>
@@ -2782,8 +3045,10 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2808,12 +3073,13 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ro-RO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="m\/d\/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2845,7 +3111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150921600"/>
@@ -2853,12 +3119,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="150921600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2901,6 +3169,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2908,9 +3177,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -2936,7 +3226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150903040"/>
@@ -2948,6 +3238,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -2976,6 +3267,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2983,9 +3275,30 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3011,7 +3324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="150741376"/>
@@ -3026,12 +3339,14 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="150923520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:noFill/>
@@ -3043,6 +3358,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3067,12 +3383,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3096,7 +3413,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5339,7 +5656,7 @@
         <xdr:cNvPr id="5" name="BloodPressureProgress" descr="Combination of Clustered Column and Line Chart tracking Blood Pressure and Heart Rate over time">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5382,7 +5699,7 @@
         <xdr:cNvPr id="2" name="BloodPressureProgress" descr="Combination of Clustered Column and Line Chart tracking Blood Pressure and Heart Rate over time">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5425,7 +5742,7 @@
         <xdr:cNvPr id="2" name="BloodPressureProgress" descr="Combination of Clustered Column and Line Chart tracking Blood Pressure and Heart Rate over time">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5468,7 +5785,7 @@
         <xdr:cNvPr id="2" name="BloodPressureProgress" descr="Combination of Clustered Column and Line Chart tracking Blood Pressure and Heart Rate over time">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5495,15 +5812,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="B11:H20" totalsRowCount="1" headerRowCellStyle="Normal">
   <autoFilter ref="B11:H19"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="33" dataCellStyle="Time"/>
-    <tableColumn id="1" name="DATA" totalsRowDxfId="32" dataCellStyle="Date"/>
-    <tableColumn id="7" name="AM/PM" totalsRowDxfId="31" dataCellStyle="Normal">
+    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="6" dataCellStyle="Time"/>
+    <tableColumn id="1" name="DATA" totalsRowDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="7" name="AM/PM" totalsRowDxfId="4" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="30" dataCellStyle="Comma [0]"/>
-    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="29" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="28" dataCellStyle="Comma [0]"/>
-    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="27" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="3" dataCellStyle="Comma [0]"/>
+    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Blood pressure tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5518,15 +5835,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Data5" displayName="Data5" ref="B11:H20" totalsRowCount="1" headerRowCellStyle="Normal">
   <autoFilter ref="B11:H19"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="24" dataCellStyle="Time"/>
-    <tableColumn id="1" name="DATA" totalsRowDxfId="23" dataCellStyle="Date"/>
-    <tableColumn id="7" name="AM/PM" totalsRowDxfId="22" dataCellStyle="Normal">
+    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="31" dataCellStyle="Time"/>
+    <tableColumn id="1" name="DATA" totalsRowDxfId="30" dataCellStyle="Date"/>
+    <tableColumn id="7" name="AM/PM" totalsRowDxfId="29" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="21" dataCellStyle="Comma [0]"/>
-    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="20" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="19" dataCellStyle="Comma [0]"/>
-    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="28" dataCellStyle="Comma [0]"/>
+    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="27" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="26" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="25" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Blood pressure tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5541,15 +5858,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Data56" displayName="Data56" ref="B11:H20" totalsRowCount="1" headerRowCellStyle="Normal">
   <autoFilter ref="B11:H19"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="15" dataCellStyle="Time"/>
-    <tableColumn id="1" name="DATA" totalsRowDxfId="14" dataCellStyle="Date"/>
-    <tableColumn id="7" name="AM/PM" totalsRowDxfId="13" dataCellStyle="Normal">
+    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="22" dataCellStyle="Time"/>
+    <tableColumn id="1" name="DATA" totalsRowDxfId="21" dataCellStyle="Date"/>
+    <tableColumn id="7" name="AM/PM" totalsRowDxfId="20" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="12" dataCellStyle="Comma [0]"/>
-    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="11" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="10" dataCellStyle="Comma [0]"/>
-    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="19" dataCellStyle="Comma [0]"/>
+    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="18" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="17" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="16" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Blood pressure tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5564,15 +5881,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Data57" displayName="Data57" ref="B11:H20" totalsRowCount="1" headerRowCellStyle="Normal">
   <autoFilter ref="B11:H19"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="6" dataCellStyle="Time"/>
-    <tableColumn id="1" name="DATA" totalsRowDxfId="5" dataCellStyle="Date"/>
-    <tableColumn id="7" name="AM/PM" totalsRowDxfId="4" dataCellStyle="Normal">
+    <tableColumn id="2" name="ORA" totalsRowLabel="Media" totalsRowDxfId="13" dataCellStyle="Time"/>
+    <tableColumn id="1" name="DATA" totalsRowDxfId="12" dataCellStyle="Date"/>
+    <tableColumn id="7" name="AM/PM" totalsRowDxfId="11" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="3" dataCellStyle="Comma [0]"/>
-    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
-    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="SYSTOLIC" totalsRowFunction="average" totalsRowDxfId="10" dataCellStyle="Comma [0]"/>
+    <tableColumn id="4" name="DIASTOLIC" totalsRowFunction="average" totalsRowDxfId="9" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" name="BPM" totalsRowFunction="average" totalsRowDxfId="8" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" name="OBSERVAȚII" totalsRowDxfId="7" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Blood pressure tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5869,7 +6186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5877,10 +6194,10 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
@@ -5890,7 +6207,7 @@
     <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
@@ -5901,7 +6218,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1">
+    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -5912,7 +6229,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="2:8" ht="26.1" customHeight="1">
+    <row r="3" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5921,7 +6238,7 @@
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
@@ -5935,7 +6252,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" ht="26.1" customHeight="1">
+    <row r="5" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -5944,7 +6261,7 @@
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
@@ -5958,7 +6275,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" ht="44.45" customHeight="1">
+    <row r="7" spans="2:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5966,7 +6283,7 @@
       <c r="F7" s="17"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
@@ -5977,7 +6294,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5988,7 +6305,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1">
+    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -5999,7 +6316,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -6022,7 +6339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -6032,7 +6349,7 @@
       </c>
       <c r="D12" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E12" s="10">
         <v>129</v>
@@ -6044,7 +6361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>0.75</v>
       </c>
@@ -6054,7 +6371,7 @@
       </c>
       <c r="D13" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E13" s="10">
         <v>133</v>
@@ -6066,7 +6383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>0.4375</v>
       </c>
@@ -6076,7 +6393,7 @@
       </c>
       <c r="D14" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E14" s="10">
         <v>142</v>
@@ -6088,7 +6405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>0.79166666666666663</v>
       </c>
@@ -6098,7 +6415,7 @@
       </c>
       <c r="D15" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E15" s="10">
         <v>141</v>
@@ -6110,7 +6427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>0.375</v>
       </c>
@@ -6120,7 +6437,7 @@
       </c>
       <c r="D16" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E16" s="10">
         <v>122</v>
@@ -6132,7 +6449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1">
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>0.77083333333333337</v>
       </c>
@@ -6142,10 +6459,10 @@
       </c>
       <c r="D17" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E17" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F17" s="10">
         <v>83</v>
@@ -6154,7 +6471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1">
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -6164,19 +6481,19 @@
       </c>
       <c r="D18" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E18" s="10">
         <v>140</v>
       </c>
       <c r="F18" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G18" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>0.75</v>
       </c>
@@ -6186,7 +6503,7 @@
       </c>
       <c r="D19" t="str">
         <f>IFERROR(IF(Data[[#This Row],[ORA]]="","",RIGHT(TEXT(Data[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E19" s="10">
         <v>138</v>
@@ -6198,22 +6515,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1">
+    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1">
-        <f>SUBTOTAL(101,[SYSTOLIC])</f>
-        <v>133.125</v>
+        <f>SUBTOTAL(101,Data[SYSTOLIC])</f>
+        <v>133.25</v>
       </c>
       <c r="F20" s="1">
-        <f>SUBTOTAL(101,[DIASTOLIC])</f>
-        <v>85.75</v>
+        <f>SUBTOTAL(101,Data[DIASTOLIC])</f>
+        <v>86.25</v>
       </c>
       <c r="G20" s="1">
-        <f>SUBTOTAL(101,[BPM])</f>
+        <f>SUBTOTAL(101,Data[BPM])</f>
         <v>71.75</v>
       </c>
       <c r="H20" s="3"/>
@@ -6286,7 +6603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6297,7 +6614,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
@@ -6307,7 +6624,7 @@
     <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
@@ -6318,7 +6635,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1">
+    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -6327,7 +6644,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="2:8" ht="26.1" customHeight="1">
+    <row r="3" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
@@ -6336,7 +6653,7 @@
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
@@ -6350,7 +6667,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" ht="26.1" customHeight="1">
+    <row r="5" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -6359,7 +6676,7 @@
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
@@ -6373,7 +6690,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" ht="44.45" customHeight="1">
+    <row r="7" spans="2:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -6381,7 +6698,7 @@
       <c r="F7" s="17"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
@@ -6392,7 +6709,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
@@ -6403,7 +6720,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1">
+    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -6414,7 +6731,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -6447,13 +6764,13 @@
       </c>
       <c r="D12" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>0.75</v>
       </c>
@@ -6463,13 +6780,13 @@
       </c>
       <c r="D13" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>0.4375</v>
       </c>
@@ -6479,13 +6796,13 @@
       </c>
       <c r="D14" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>0.79166666666666663</v>
       </c>
@@ -6495,13 +6812,13 @@
       </c>
       <c r="D15" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>0.375</v>
       </c>
@@ -6511,13 +6828,13 @@
       </c>
       <c r="D16" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1">
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>0.77083333333333337</v>
       </c>
@@ -6527,13 +6844,13 @@
       </c>
       <c r="D17" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1">
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -6543,13 +6860,13 @@
       </c>
       <c r="D18" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>0.75</v>
       </c>
@@ -6559,28 +6876,28 @@
       </c>
       <c r="D19" t="str">
         <f>IFERROR(IF(Data5[[#This Row],[ORA]]="","",RIGHT(TEXT(Data5[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1">
+    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="e">
-        <f>SUBTOTAL(101,[SYSTOLIC])</f>
+        <f>SUBTOTAL(101,Data5[SYSTOLIC])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="1" t="e">
-        <f>SUBTOTAL(101,[DIASTOLIC])</f>
+        <f>SUBTOTAL(101,Data5[DIASTOLIC])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="1" t="e">
-        <f>SUBTOTAL(101,[BPM])</f>
+        <f>SUBTOTAL(101,Data5[BPM])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="3"/>
@@ -6600,12 +6917,12 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F19">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>F12&gt;MaxDiastolic</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E19">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>E12&gt;MaxSystolic</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6650,7 +6967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6661,7 +6978,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -6671,7 +6988,7 @@
     <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
@@ -6682,7 +6999,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1">
+    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -6691,7 +7008,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="2:8" ht="26.1" customHeight="1">
+    <row r="3" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
@@ -6700,7 +7017,7 @@
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +7031,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" ht="26.1" customHeight="1">
+    <row r="5" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -6723,7 +7040,7 @@
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
@@ -6737,7 +7054,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" ht="44.45" customHeight="1">
+    <row r="7" spans="2:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -6745,7 +7062,7 @@
       <c r="F7" s="17"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
@@ -6756,7 +7073,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
@@ -6767,7 +7084,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1">
+    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -6778,7 +7095,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -6801,7 +7118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -6811,13 +7128,13 @@
       </c>
       <c r="D12" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>0.75</v>
       </c>
@@ -6827,13 +7144,13 @@
       </c>
       <c r="D13" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>0.4375</v>
       </c>
@@ -6843,13 +7160,13 @@
       </c>
       <c r="D14" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>0.79166666666666663</v>
       </c>
@@ -6859,13 +7176,13 @@
       </c>
       <c r="D15" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>0.375</v>
       </c>
@@ -6875,13 +7192,13 @@
       </c>
       <c r="D16" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1">
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>0.77083333333333337</v>
       </c>
@@ -6891,13 +7208,13 @@
       </c>
       <c r="D17" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1">
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -6907,13 +7224,13 @@
       </c>
       <c r="D18" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>0.75</v>
       </c>
@@ -6923,28 +7240,28 @@
       </c>
       <c r="D19" t="str">
         <f>IFERROR(IF(Data56[[#This Row],[ORA]]="","",RIGHT(TEXT(Data56[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1">
+    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="e">
-        <f>SUBTOTAL(101,[SYSTOLIC])</f>
+        <f>SUBTOTAL(101,Data56[SYSTOLIC])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="1" t="e">
-        <f>SUBTOTAL(101,[DIASTOLIC])</f>
+        <f>SUBTOTAL(101,Data56[DIASTOLIC])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="1" t="e">
-        <f>SUBTOTAL(101,[BPM])</f>
+        <f>SUBTOTAL(101,Data56[BPM])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="3"/>
@@ -6964,12 +7281,12 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F19">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>F12&gt;MaxDiastolic</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E19">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>E12&gt;MaxSystolic</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7014,7 +7331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7025,7 +7342,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -7035,7 +7352,7 @@
     <col min="9" max="9" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
@@ -7046,7 +7363,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1">
+    <row r="2" spans="2:8" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -7055,7 +7372,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="2:8" ht="26.1" customHeight="1">
+    <row r="3" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
@@ -7064,7 +7381,7 @@
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
@@ -7078,7 +7395,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" ht="26.1" customHeight="1">
+    <row r="5" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -7087,7 +7404,7 @@
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
@@ -7101,7 +7418,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" ht="44.45" customHeight="1">
+    <row r="7" spans="2:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -7109,7 +7426,7 @@
       <c r="F7" s="17"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
@@ -7120,7 +7437,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="2:8" ht="243" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
@@ -7131,7 +7448,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1">
+    <row r="10" spans="2:8" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -7142,7 +7459,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -7165,7 +7482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -7175,13 +7492,13 @@
       </c>
       <c r="D12" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>0.75</v>
       </c>
@@ -7191,13 +7508,13 @@
       </c>
       <c r="D13" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>0.4375</v>
       </c>
@@ -7207,13 +7524,13 @@
       </c>
       <c r="D14" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>0.79166666666666663</v>
       </c>
@@ -7223,13 +7540,13 @@
       </c>
       <c r="D15" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>0.375</v>
       </c>
@@ -7239,13 +7556,13 @@
       </c>
       <c r="D16" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1">
+    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>0.77083333333333337</v>
       </c>
@@ -7255,13 +7572,13 @@
       </c>
       <c r="D17" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1">
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>0.41666666666666669</v>
       </c>
@@ -7271,13 +7588,13 @@
       </c>
       <c r="D18" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>AM</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1">
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>0.75</v>
       </c>
@@ -7287,28 +7604,28 @@
       </c>
       <c r="D19" t="str">
         <f>IFERROR(IF(Data57[[#This Row],[ORA]]="","",RIGHT(TEXT(Data57[[#This Row],[ORA]],"h:mm AM/PM"),2)), "")</f>
-        <v>m.</v>
+        <v>PM</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1">
+    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="e">
-        <f>SUBTOTAL(101,[SYSTOLIC])</f>
+        <f>SUBTOTAL(101,Data57[SYSTOLIC])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="1" t="e">
-        <f>SUBTOTAL(101,[DIASTOLIC])</f>
+        <f>SUBTOTAL(101,Data57[DIASTOLIC])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="1" t="e">
-        <f>SUBTOTAL(101,[BPM])</f>
+        <f>SUBTOTAL(101,Data57[BPM])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="3"/>
@@ -7328,12 +7645,12 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F19">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>F12&gt;MaxDiastolic</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E19">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>E12&gt;MaxSystolic</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7378,6 +7695,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -7588,24 +7922,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ECC2247-4C0A-45E4-9F3B-B81B0138A5FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7298FA2-395B-45FD-90B0-FAE67317D6F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA2EDFB8-7B20-45D1-A22A-5E5DAA5A8D34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7622,29 +7964,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7298FA2-395B-45FD-90B0-FAE67317D6F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ECC2247-4C0A-45E4-9F3B-B81B0138A5FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>